--- a/public/templates/template_pengembalian.xlsx
+++ b/public/templates/template_pengembalian.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEMESTER 5\Praktek\Big Data\Minggu2\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86D9876-8B41-4562-887F-846EEB26EB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9170E5C-3521-41C5-99B5-C04245F4EC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{668FDA94-AF08-42C2-9CEC-D42A8BF1627D}"/>
   </bookViews>
@@ -34,24 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>kode_item</t>
-  </si>
-  <si>
-    <t>nama_item</t>
-  </si>
-  <si>
-    <t>jumlah</t>
-  </si>
-  <si>
-    <t>satuan</t>
-  </si>
-  <si>
-    <t>bulan</t>
-  </si>
-  <si>
-    <t>tahun</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Kd. Item</t>
+  </si>
+  <si>
+    <t>Nama Item</t>
+  </si>
+  <si>
+    <t>Jml</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>Pot. %</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C4CD65-D62B-4130-8E28-757A5DB6EC87}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,9 +420,10 @@
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,6 +441,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
